--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -24,7 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AP$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AP$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
@@ -36,6 +36,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="200">
   <si>
     <t>Sorting</t>
   </si>
@@ -554,9 +556,6 @@
   </si>
   <si>
     <t>SSD, Juices, ice tea, Water, Energy</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
   </si>
   <si>
     <t>0.05, 0.11, 0.2, 0.237, 0.25, 0.3, 0.33, 0.355, 0.385, 0.4, 0.45, 0.473, 0.5, 0.6, 0.7, 0.75</t>
@@ -1331,17 +1330,18 @@
   <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S45" activeCellId="0" sqref="S45"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.0647773279352"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,9 +4338,7 @@
       <c r="N36" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="O36" s="54" t="s">
-        <v>163</v>
-      </c>
+      <c r="O36" s="54"/>
       <c r="P36" s="36" t="s">
         <v>55</v>
       </c>
@@ -4348,10 +4346,10 @@
         <v>128</v>
       </c>
       <c r="R36" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="S36" s="54" t="s">
         <v>164</v>
-      </c>
-      <c r="S36" s="54" t="s">
-        <v>165</v>
       </c>
       <c r="T36" s="54"/>
       <c r="U36" s="54"/>
@@ -4359,7 +4357,7 @@
         <v>157</v>
       </c>
       <c r="W36" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X36" s="54"/>
       <c r="Y36" s="54"/>
@@ -4407,16 +4405,16 @@
         <v>44</v>
       </c>
       <c r="E37" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="G37" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="77" t="s">
+      <c r="H37" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="I37" s="36" t="n">
         <v>3</v>
@@ -4428,7 +4426,7 @@
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="36"/>
       <c r="R37" s="54"/>
@@ -4439,7 +4437,7 @@
         <v>157</v>
       </c>
       <c r="W37" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X37" s="54"/>
       <c r="Y37" s="54"/>
@@ -4467,7 +4465,7 @@
         <v>36</v>
       </c>
       <c r="AM37" s="78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN37" s="54"/>
       <c r="AO37" s="54"/>
@@ -4489,13 +4487,13 @@
         <v>44</v>
       </c>
       <c r="E38" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="79" t="s">
         <v>174</v>
-      </c>
-      <c r="G38" s="79" t="s">
-        <v>175</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>54</v>
@@ -4506,7 +4504,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
       <c r="L38" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M38" s="36" t="n">
         <v>5050570</v>
@@ -4529,7 +4527,7 @@
         <v>157</v>
       </c>
       <c r="W38" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X38" s="54"/>
       <c r="Y38" s="54"/>
@@ -4558,7 +4556,7 @@
       </c>
       <c r="AM38" s="54"/>
       <c r="AN38" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO38" s="54"/>
       <c r="AP38" s="24"/>
@@ -4577,13 +4575,13 @@
         <v>44</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F39" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="79" t="s">
         <v>177</v>
-      </c>
-      <c r="G39" s="79" t="s">
-        <v>178</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>54</v>
@@ -4594,7 +4592,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="54"/>
       <c r="L39" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M39" s="36" t="n">
         <v>50111114</v>
@@ -4617,7 +4615,7 @@
         <v>157</v>
       </c>
       <c r="W39" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X39" s="54"/>
       <c r="Y39" s="54"/>
@@ -4646,7 +4644,7 @@
       </c>
       <c r="AM39" s="54"/>
       <c r="AN39" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO39" s="54"/>
       <c r="AP39" s="24"/>
@@ -4665,16 +4663,16 @@
         <v>44</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="79" t="s">
+      <c r="H40" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="I40" s="36" t="n">
         <v>1</v>
@@ -4682,7 +4680,7 @@
       <c r="J40" s="54"/>
       <c r="K40" s="54"/>
       <c r="L40" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M40" s="36" t="n">
         <v>5000034</v>
@@ -4703,7 +4701,7 @@
         <v>157</v>
       </c>
       <c r="W40" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
@@ -4721,7 +4719,7 @@
       <c r="AE40" s="54"/>
       <c r="AF40" s="54"/>
       <c r="AG40" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH40" s="54"/>
       <c r="AI40" s="54"/>
@@ -4734,7 +4732,7 @@
       </c>
       <c r="AM40" s="54"/>
       <c r="AN40" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO40" s="54"/>
       <c r="AP40" s="24"/>
@@ -4753,16 +4751,16 @@
         <v>44</v>
       </c>
       <c r="E41" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>186</v>
-      </c>
       <c r="H41" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I41" s="36" t="n">
         <v>2</v>
@@ -4774,7 +4772,7 @@
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
       <c r="P41" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q41" s="36"/>
       <c r="R41" s="54"/>
@@ -4785,7 +4783,7 @@
         <v>157</v>
       </c>
       <c r="W41" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X41" s="54"/>
       <c r="Y41" s="54"/>
@@ -4813,7 +4811,7 @@
         <v>40</v>
       </c>
       <c r="AM41" s="78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AN41" s="54"/>
       <c r="AO41" s="54"/>
@@ -4835,13 +4833,13 @@
         <v>44</v>
       </c>
       <c r="E42" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="79" t="s">
         <v>188</v>
-      </c>
-      <c r="G42" s="79" t="s">
-        <v>189</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>54</v>
@@ -4852,10 +4850,10 @@
       <c r="J42" s="54"/>
       <c r="K42" s="54"/>
       <c r="L42" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M42" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>191</v>
       </c>
       <c r="N42" s="36" t="s">
         <v>155</v>
@@ -4875,7 +4873,7 @@
         <v>157</v>
       </c>
       <c r="W42" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X42" s="54"/>
       <c r="Y42" s="54"/>
@@ -4904,7 +4902,7 @@
       </c>
       <c r="AM42" s="54"/>
       <c r="AN42" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO42" s="54"/>
       <c r="AP42" s="24"/>
@@ -4923,16 +4921,16 @@
         <v>44</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="G43" s="79" t="s">
-        <v>193</v>
-      </c>
       <c r="H43" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I43" s="36" t="n">
         <v>1</v>
@@ -4940,7 +4938,7 @@
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
       <c r="L43" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M43" s="36" t="n">
         <v>5000034</v>
@@ -4961,7 +4959,7 @@
         <v>157</v>
       </c>
       <c r="W43" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
@@ -4979,7 +4977,7 @@
       <c r="AE43" s="54"/>
       <c r="AF43" s="54"/>
       <c r="AG43" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH43" s="54"/>
       <c r="AI43" s="54"/>
@@ -4992,7 +4990,7 @@
       </c>
       <c r="AM43" s="54"/>
       <c r="AN43" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO43" s="54"/>
       <c r="AP43" s="24"/>
@@ -5008,17 +5006,17 @@
         <v>43</v>
       </c>
       <c r="D44" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="69" t="s">
         <v>194</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>195</v>
       </c>
       <c r="F44" s="69" t="s">
         <v>142</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44" s="84"/>
       <c r="J44" s="84"/>
@@ -5147,10 +5145,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="88" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>198</v>
       </c>
       <c r="I1" s="88" t="s">
         <v>32</v>
@@ -5159,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="88" t="s">
         <v>33</v>
@@ -5170,7 +5168,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -26,7 +26,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AP$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AP$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
@@ -38,6 +38,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AO$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="199">
   <si>
     <t>Sorting</t>
   </si>
@@ -543,7 +545,7 @@
     <t>Activation</t>
   </si>
   <si>
-    <t>Menu Board</t>
+    <t>Menu Board, Cash Zone</t>
   </si>
   <si>
     <t>STANDARD 17</t>
@@ -561,7 +563,7 @@
     <t>0.05, 0.11, 0.2, 0.237, 0.25, 0.3, 0.33, 0.355, 0.385, 0.4, 0.45, 0.473, 0.5, 0.6, 0.7, 0.75</t>
   </si>
   <si>
-    <t>pet, glass, can</t>
+    <t>pet, glass, can, PET, GLASS, CAN</t>
   </si>
   <si>
     <t>Cash Zone</t>
@@ -580,9 +582,6 @@
   </si>
   <si>
     <t>AND</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone</t>
   </si>
   <si>
     <t>37
@@ -1329,18 +1328,18 @@
   </sheetPr>
   <dimension ref="A1:AP44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -4437,7 +4436,7 @@
         <v>157</v>
       </c>
       <c r="W37" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X37" s="54"/>
       <c r="Y37" s="54"/>
@@ -4465,7 +4464,7 @@
         <v>36</v>
       </c>
       <c r="AM37" s="78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN37" s="54"/>
       <c r="AO37" s="54"/>
@@ -4490,10 +4489,10 @@
         <v>166</v>
       </c>
       <c r="F38" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="79" t="s">
         <v>173</v>
-      </c>
-      <c r="G38" s="79" t="s">
-        <v>174</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>54</v>
@@ -4504,7 +4503,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
       <c r="L38" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M38" s="36" t="n">
         <v>5050570</v>
@@ -4527,7 +4526,7 @@
         <v>157</v>
       </c>
       <c r="W38" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X38" s="54"/>
       <c r="Y38" s="54"/>
@@ -4578,10 +4577,10 @@
         <v>166</v>
       </c>
       <c r="F39" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="79" t="s">
         <v>176</v>
-      </c>
-      <c r="G39" s="79" t="s">
-        <v>177</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>54</v>
@@ -4592,7 +4591,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="54"/>
       <c r="L39" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M39" s="36" t="n">
         <v>50111114</v>
@@ -4615,7 +4614,7 @@
         <v>157</v>
       </c>
       <c r="W39" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X39" s="54"/>
       <c r="Y39" s="54"/>
@@ -4666,13 +4665,13 @@
         <v>166</v>
       </c>
       <c r="F40" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="79" t="s">
+      <c r="H40" s="64" t="s">
         <v>180</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>181</v>
       </c>
       <c r="I40" s="36" t="n">
         <v>1</v>
@@ -4680,7 +4679,7 @@
       <c r="J40" s="54"/>
       <c r="K40" s="54"/>
       <c r="L40" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M40" s="36" t="n">
         <v>5000034</v>
@@ -4701,7 +4700,7 @@
         <v>157</v>
       </c>
       <c r="W40" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
@@ -4719,7 +4718,7 @@
       <c r="AE40" s="54"/>
       <c r="AF40" s="54"/>
       <c r="AG40" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH40" s="54"/>
       <c r="AI40" s="54"/>
@@ -4754,10 +4753,10 @@
         <v>166</v>
       </c>
       <c r="F41" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>185</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>169</v>
@@ -4783,7 +4782,7 @@
         <v>157</v>
       </c>
       <c r="W41" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X41" s="54"/>
       <c r="Y41" s="54"/>
@@ -4811,7 +4810,7 @@
         <v>40</v>
       </c>
       <c r="AM41" s="78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN41" s="54"/>
       <c r="AO41" s="54"/>
@@ -4836,10 +4835,10 @@
         <v>166</v>
       </c>
       <c r="F42" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="79" t="s">
         <v>187</v>
-      </c>
-      <c r="G42" s="79" t="s">
-        <v>188</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>54</v>
@@ -4850,10 +4849,10 @@
       <c r="J42" s="54"/>
       <c r="K42" s="54"/>
       <c r="L42" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="36" t="s">
         <v>189</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>190</v>
       </c>
       <c r="N42" s="36" t="s">
         <v>155</v>
@@ -4873,7 +4872,7 @@
         <v>157</v>
       </c>
       <c r="W42" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X42" s="54"/>
       <c r="Y42" s="54"/>
@@ -4902,7 +4901,7 @@
       </c>
       <c r="AM42" s="54"/>
       <c r="AN42" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO42" s="54"/>
       <c r="AP42" s="24"/>
@@ -4924,13 +4923,13 @@
         <v>166</v>
       </c>
       <c r="F43" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="79" t="s">
-        <v>192</v>
-      </c>
       <c r="H43" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43" s="36" t="n">
         <v>1</v>
@@ -4938,7 +4937,7 @@
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
       <c r="L43" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M43" s="36" t="n">
         <v>5000034</v>
@@ -4959,7 +4958,7 @@
         <v>157</v>
       </c>
       <c r="W43" s="54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
@@ -4977,7 +4976,7 @@
       <c r="AE43" s="54"/>
       <c r="AF43" s="54"/>
       <c r="AG43" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH43" s="54"/>
       <c r="AI43" s="54"/>
@@ -4990,7 +4989,7 @@
       </c>
       <c r="AM43" s="54"/>
       <c r="AN43" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO43" s="54"/>
       <c r="AP43" s="24"/>
@@ -5006,17 +5005,17 @@
         <v>43</v>
       </c>
       <c r="D44" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="69" t="s">
         <v>193</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>194</v>
       </c>
       <c r="F44" s="69" t="s">
         <v>142</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" s="84"/>
       <c r="J44" s="84"/>
@@ -5079,7 +5078,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5116,7 +5115,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5145,10 +5144,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="88" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>197</v>
       </c>
       <c r="I1" s="88" t="s">
         <v>32</v>
@@ -5157,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L1" s="88" t="s">
         <v>33</v>
@@ -5168,7 +5167,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
@@ -41,6 +41,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -755,7 +757,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,9 +781,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -794,13 +794,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -814,19 +807,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -834,9 +814,10 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -847,7 +828,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,62 +843,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0066"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF767171"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -977,408 +904,152 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1400,7 +1071,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -1408,8 +1079,8 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF767171"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1417,7 +1088,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1428,7 +1099,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1437,13 +1108,13 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1467,4134 +1138,4128 @@
   <dimension ref="A1:AR48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="A44" activeCellId="0" sqref="44:48"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="43.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="47.834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.2267206477733"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="80.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+    <row r="2" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="20" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="21" t="n">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN2" s="22" t="n">
+      <c r="AN2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AO2" s="23" t="s">
+      <c r="AO2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="25"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+    <row r="3" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="n">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="28" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="29" t="n">
+      <c r="O3" s="9" t="n">
         <v>54491472</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="20" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="31" t="n">
+      <c r="AF3" s="16" t="n">
         <v>0.030362</v>
       </c>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="21" t="n">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN3" s="22" t="n">
+      <c r="AN3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="32" t="s">
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="25"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+    <row r="4" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20" t="n">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="28" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="29" t="n">
+      <c r="O4" s="9" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="20" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20" t="s">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20" t="s">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="31" t="n">
+      <c r="AF4" s="16" t="n">
         <v>0.030362</v>
       </c>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="21" t="n">
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN4" s="22" t="n">
+      <c r="AN4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="32" t="s">
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="25"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+    <row r="5" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="n">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="35" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="36" t="n">
+      <c r="O5" s="19" t="n">
         <v>50112128</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="20" t="s">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20" t="s">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20" t="s">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20" t="s">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" s="31" t="n">
+      <c r="AF5" s="16" t="n">
         <v>0.030362</v>
       </c>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="21" t="n">
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN5" s="22" t="n">
+      <c r="AN5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="32" t="s">
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="25"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+    <row r="6" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20" t="n">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="35" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="36" t="n">
+      <c r="O6" s="19" t="n">
         <v>90375408</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="20" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20" t="s">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20" t="s">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20" t="s">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="31" t="n">
+      <c r="AF6" s="16" t="n">
         <v>0.030362</v>
       </c>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="21" t="n">
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN6" s="22" t="n">
+      <c r="AN6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="32" t="s">
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="25"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+    <row r="7" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20" t="n">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="28" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="29" t="n">
+      <c r="O7" s="9" t="n">
         <v>54491069</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="20" t="s">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20" t="s">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF7" s="31" t="n">
+      <c r="AF7" s="16" t="n">
         <v>0.018173</v>
       </c>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="21" t="n">
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN7" s="22" t="n">
+      <c r="AN7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="32" t="s">
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="25"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+    <row r="8" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20" t="n">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="28" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="29" t="n">
+      <c r="O8" s="9" t="n">
         <v>40822938</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20" t="s">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20" t="s">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="31" t="n">
+      <c r="AF8" s="16" t="n">
         <v>0.018173</v>
       </c>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="21" t="n">
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN8" s="22" t="n">
+      <c r="AN8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="32" t="s">
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="25"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+    <row r="9" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="n">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="28" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="29" t="n">
+      <c r="O9" s="9" t="n">
         <v>5449000213631</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20" t="s">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20" t="s">
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20" t="s">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="31" t="n">
+      <c r="AF9" s="16" t="n">
         <v>0.012206</v>
       </c>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="21" t="n">
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN9" s="22" t="n">
+      <c r="AN9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="32" t="s">
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="25"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+    <row r="10" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="39" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="40" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AE10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="21" t="n">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN10" s="22" t="n">
+      <c r="AN10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="AO10" s="23" t="s">
+      <c r="AO10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="25"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+    <row r="11" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="n">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="28" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="29" t="n">
+      <c r="O11" s="9" t="n">
         <v>40822426</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20" t="s">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20" t="s">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20" t="s">
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20" t="s">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF11" s="31" t="n">
+      <c r="AF11" s="16" t="n">
         <v>0.023</v>
       </c>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="21" t="n">
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN11" s="22" t="n">
+      <c r="AN11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="32" t="s">
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="25"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+    <row r="12" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20" t="n">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="44" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="29" t="n">
+      <c r="O12" s="9" t="n">
         <v>90418822</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20" t="s">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20" t="s">
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20" t="s">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF12" s="31" t="n">
+      <c r="AF12" s="16" t="n">
         <v>0.023</v>
       </c>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="21" t="n">
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN12" s="22" t="n">
+      <c r="AN12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="32" t="s">
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="25"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+    <row r="13" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20" t="n">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="28" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="9" t="n">
         <v>90494406</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20" t="s">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20" t="s">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20" t="s">
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF13" s="31" t="n">
+      <c r="AF13" s="16" t="n">
         <v>0.015295</v>
       </c>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="21" t="n">
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN13" s="22" t="n">
+      <c r="AN13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="32" t="s">
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="25"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+    <row r="14" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="n">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="28" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="29" t="n">
+      <c r="O14" s="9" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20" t="s">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20" t="s">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20" t="s">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20" t="s">
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AE14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF14" s="31" t="n">
+      <c r="AF14" s="16" t="n">
         <v>0.007705</v>
       </c>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="21" t="n">
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN14" s="22" t="n">
+      <c r="AN14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="32" t="s">
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="25"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+    <row r="15" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="40" t="s">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="40" t="s">
+      <c r="AE15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="21" t="n">
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN15" s="22" t="n">
+      <c r="AN15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="AO15" s="40" t="s">
+      <c r="AO15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="25"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+    <row r="16" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20" t="n">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="28" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="29" t="n">
+      <c r="O16" s="9" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20" t="s">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20" t="s">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20" t="s">
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF16" s="31" t="n">
+      <c r="AF16" s="16" t="n">
         <v>0.007705</v>
       </c>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="21" t="n">
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN16" s="22" t="n">
+      <c r="AN16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="32" t="s">
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="25"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+    <row r="17" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20" t="n">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="47" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="29" t="n">
+      <c r="O17" s="9" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20" t="s">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20" t="s">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20" t="s">
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="20" t="s">
+      <c r="AE17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF17" s="31" t="n">
+      <c r="AF17" s="16" t="n">
         <v>0.007705</v>
       </c>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="21" t="n">
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN17" s="22" t="n">
+      <c r="AN17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="32" t="s">
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="25"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+    <row r="18" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="40" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE18" s="40" t="s">
+      <c r="AE18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="21" t="n">
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN18" s="22" t="n">
+      <c r="AN18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="AO18" s="40" t="s">
+      <c r="AO18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="25"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+    <row r="19" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20" t="n">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="28" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="29" t="n">
+      <c r="O19" s="9" t="n">
         <v>5449000193124</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20" t="s">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20" t="s">
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20" t="s">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AE19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF19" s="31" t="n">
+      <c r="AF19" s="16" t="n">
         <v>0.023</v>
       </c>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="21" t="n">
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN19" s="22" t="n">
+      <c r="AN19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="32" t="s">
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="25"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+    <row r="20" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20" t="n">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="28" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="29" t="n">
+      <c r="O20" s="9" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20" t="s">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20" t="s">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20" t="s">
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20" t="s">
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AE20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="31" t="n">
+      <c r="AF20" s="16" t="n">
         <v>0.023</v>
       </c>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="21" t="n">
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN20" s="22" t="n">
+      <c r="AN20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="32" t="s">
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="25"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+    <row r="21" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20" t="n">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="28" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O21" s="29" t="n">
+      <c r="O21" s="9" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20" t="s">
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20" t="s">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20" t="s">
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE21" s="20" t="s">
+      <c r="AE21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF21" s="31" t="n">
+      <c r="AF21" s="16" t="n">
         <v>0.015295</v>
       </c>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="21" t="n">
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN21" s="22" t="n">
+      <c r="AN21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="32" t="s">
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="25"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+    <row r="22" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20" t="n">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="47" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="48" t="n">
+      <c r="O22" s="15" t="n">
         <v>5449000189370</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20" t="s">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20" t="s">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20" t="s">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20" t="s">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AE22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF22" s="31" t="n">
+      <c r="AF22" s="16" t="n">
         <v>0.015295</v>
       </c>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="21" t="n">
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN22" s="22" t="n">
+      <c r="AN22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="32" t="s">
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="25"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="n">
+    <row r="23" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="39" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="40" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE23" s="40" t="s">
+      <c r="AE23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="21" t="n">
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN23" s="22" t="n">
+      <c r="AN23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="AO23" s="40" t="s">
+      <c r="AO23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="25"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+    <row r="24" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20" t="n">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="28" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="29" t="n">
+      <c r="O24" s="9" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20" t="s">
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20" t="s">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20" t="s">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20" t="s">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" s="20" t="s">
+      <c r="AE24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF24" s="31" t="n">
+      <c r="AF24" s="16" t="n">
         <v>0.023</v>
       </c>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="21" t="n">
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN24" s="22" t="n">
+      <c r="AN24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="32" t="s">
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="25"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+    <row r="25" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20" t="n">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="28" t="s">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="29" t="n">
+      <c r="O25" s="9" t="n">
         <v>4607174579309</v>
       </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20" t="s">
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S25" s="20" t="s">
+      <c r="S25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20" t="s">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20" t="s">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE25" s="20" t="s">
+      <c r="AE25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF25" s="31" t="n">
+      <c r="AF25" s="16" t="n">
         <v>0.015295</v>
       </c>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="21" t="n">
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN25" s="22" t="n">
+      <c r="AN25" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="32" t="s">
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="25"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+    <row r="26" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20" t="n">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="50" t="s">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="29" t="n">
+      <c r="O26" s="9" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20" t="s">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20" t="s">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20" t="s">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20" t="s">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE26" s="20" t="s">
+      <c r="AE26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF26" s="31" t="n">
+      <c r="AF26" s="16" t="n">
         <v>0.015295</v>
       </c>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="21" t="n">
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN26" s="22" t="n">
+      <c r="AN26" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="32" t="s">
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="25"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+    <row r="27" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20" t="n">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="28" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O27" s="51" t="n">
+      <c r="O27" s="9" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20" t="s">
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="S27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20" t="s">
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20" t="s">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20" t="s">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AE27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF27" s="31" t="n">
+      <c r="AF27" s="16" t="n">
         <v>0.007705</v>
       </c>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="21" t="n">
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN27" s="22" t="n">
+      <c r="AN27" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="32" t="s">
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="25"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+    <row r="28" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20" t="n">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="28" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="O28" s="51" t="n">
+      <c r="O28" s="9" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20" t="s">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="20" t="s">
+      <c r="S28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20" t="s">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20" t="s">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20" t="s">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AE28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF28" s="31" t="n">
+      <c r="AF28" s="16" t="n">
         <v>0.007705</v>
       </c>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="21" t="n">
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN28" s="22" t="n">
+      <c r="AN28" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="32" t="s">
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="25"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+    <row r="29" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="19" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="3" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="20" t="s">
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AF29" s="57" t="n">
+      <c r="AF29" s="21" t="n">
         <v>0.08</v>
       </c>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="58" t="s">
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="12" t="n">
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN29" s="22" t="n">
+      <c r="AN29" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="AO29" s="59" t="s">
+      <c r="AO29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="25"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
+    <row r="30" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="19" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="20" t="n">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="37" t="s">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="3" t="s">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="20" t="s">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="20" t="s">
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE30" s="20" t="s">
+      <c r="AE30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF30" s="57" t="n">
+      <c r="AF30" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20" t="s">
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="12" t="n">
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN30" s="22" t="n">
+      <c r="AN30" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12" t="s">
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="25"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
+    <row r="31" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="19" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20" t="n">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="37" t="s">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="3" t="s">
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="20" t="s">
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="20" t="s">
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE31" s="20" t="s">
+      <c r="AE31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF31" s="57" t="n">
+      <c r="AF31" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="12" t="n">
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN31" s="22" t="n">
+      <c r="AN31" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12" t="s">
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="25"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
+    <row r="32" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="63" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66" t="n">
+      <c r="J32" s="0"/>
+      <c r="K32" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="67" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37" t="s">
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="20" t="s">
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Y32" s="67" t="s">
+      <c r="Y32" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="20" t="s">
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE32" s="20" t="s">
+      <c r="AE32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF32" s="57" t="n">
+      <c r="AF32" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="69" t="s">
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20" t="s">
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AM32" s="12" t="n">
+      <c r="AM32" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN32" s="22" t="n">
+      <c r="AN32" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="70" t="s">
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AQ32" s="12"/>
-      <c r="AR32" s="25"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
+    <row r="33" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="63" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J33" s="63"/>
-      <c r="K33" s="20" t="n">
+      <c r="J33" s="12"/>
+      <c r="K33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="37" t="s">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="20" t="s">
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="20" t="s">
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE33" s="20" t="s">
+      <c r="AE33" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AF33" s="57" t="n">
+      <c r="AF33" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="69" t="s">
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20" t="s">
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AM33" s="12" t="n">
+      <c r="AM33" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN33" s="22" t="n">
+      <c r="AN33" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="70" t="s">
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="25"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
+    <row r="34" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="63" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="72" t="s">
+      <c r="I34" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J34" s="72"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="66" t="n">
+      <c r="J34" s="12"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="M34" s="66" t="n">
+      <c r="M34" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="N34" s="37" t="s">
+      <c r="N34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37" t="s">
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="20" t="s">
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37" t="s">
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE34" s="20" t="s">
+      <c r="AE34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AF34" s="57" t="n">
+      <c r="AF34" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="69" t="s">
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20" t="s">
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AM34" s="12" t="n">
+      <c r="AM34" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN34" s="22" t="n">
+      <c r="AN34" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="70" t="s">
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="25"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
+    <row r="35" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="55" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="37" t="n">
+      <c r="J35" s="8"/>
+      <c r="K35" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="61" t="s">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="O35" s="37" t="s">
+      <c r="O35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="37" t="s">
+      <c r="P35" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="20" t="s">
+      <c r="Q35" s="10"/>
+      <c r="R35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="65" t="s">
+      <c r="S35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="20" t="s">
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Y35" s="37" t="s">
+      <c r="Y35" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37" t="s">
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE35" s="20" t="s">
+      <c r="AE35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF35" s="74" t="n">
+      <c r="AF35" s="25" t="n">
         <v>0.07</v>
       </c>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="75" t="n">
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN35" s="22" t="n">
+      <c r="AN35" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="25" t="s">
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="n">
+    <row r="36" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="55" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="55" t="s">
+      <c r="H36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="37" t="n">
+      <c r="J36" s="8"/>
+      <c r="K36" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O36" s="55" t="s">
+      <c r="O36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="55" t="s">
+      <c r="P36" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="37" t="s">
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="T36" s="76" t="s">
+      <c r="T36" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="U36" s="55" t="s">
+      <c r="U36" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="37" t="s">
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y36" s="55" t="s">
+      <c r="Y36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="37" t="s">
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE36" s="37" t="s">
+      <c r="AE36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF36" s="77" t="n">
+      <c r="AF36" s="26" t="n">
         <v>0.07</v>
       </c>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="75" t="n">
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN36" s="22" t="n">
+      <c r="AN36" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="AO36" s="55"/>
-      <c r="AP36" s="55"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="25" t="s">
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
+    <row r="37" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="78" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="78" t="s">
+      <c r="H37" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="37" t="n">
+      <c r="J37" s="8"/>
+      <c r="K37" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="37" t="s">
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="37" t="s">
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y37" s="55" t="s">
+      <c r="Y37" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="37" t="s">
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="37" t="s">
+      <c r="AE37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF37" s="77" t="n">
+      <c r="AF37" s="26" t="n">
         <v>0.13</v>
       </c>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="75" t="n">
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN37" s="22" t="n">
+      <c r="AN37" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="AO37" s="79" t="s">
+      <c r="AO37" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="25" t="s">
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="n">
+    <row r="38" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="55" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="37" t="n">
+      <c r="J38" s="8"/>
+      <c r="K38" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55" t="s">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="O38" s="37" t="n">
+      <c r="O38" s="10" t="n">
         <v>5050570</v>
       </c>
-      <c r="P38" s="37" t="s">
+      <c r="P38" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="37" t="s">
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S38" s="58" t="s">
+      <c r="S38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="37" t="s">
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y38" s="55" t="s">
+      <c r="Y38" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="37" t="s">
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE38" s="37" t="s">
+      <c r="AE38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF38" s="77" t="n">
+      <c r="AF38" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="75" t="n">
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN38" s="22" t="n">
+      <c r="AN38" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="76" t="s">
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="25"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
+    <row r="39" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="55" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="37" t="n">
+      <c r="J39" s="8"/>
+      <c r="K39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55" t="s">
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O39" s="37" t="n">
+      <c r="O39" s="10" t="n">
         <v>50111114</v>
       </c>
-      <c r="P39" s="37" t="s">
+      <c r="P39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="37" t="s">
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S39" s="58" t="s">
+      <c r="S39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="37" t="s">
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y39" s="55" t="s">
+      <c r="Y39" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="37" t="s">
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE39" s="37" t="s">
+      <c r="AE39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF39" s="77" t="n">
+      <c r="AF39" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="75" t="n">
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN39" s="22" t="n">
+      <c r="AN39" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="76" t="s">
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="25"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="n">
+    <row r="40" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="55" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J40" s="65"/>
-      <c r="K40" s="37" t="n">
+      <c r="J40" s="0"/>
+      <c r="K40" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="37" t="s">
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="O40" s="37" t="n">
+      <c r="O40" s="10" t="n">
         <v>5000034</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="37" t="s">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S40" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="20" t="s">
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Y40" s="55" t="s">
+      <c r="Y40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="20" t="s">
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE40" s="20" t="s">
+      <c r="AE40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF40" s="82" t="n">
+      <c r="AF40" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="83" t="s">
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="75" t="n">
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN40" s="22" t="n">
+      <c r="AN40" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="76" t="s">
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="25"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="n">
+    <row r="41" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="55" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="37" t="n">
+      <c r="J41" s="8"/>
+      <c r="K41" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="37" t="s">
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="37" t="s">
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y41" s="55" t="s">
+      <c r="Y41" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="37" t="s">
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE41" s="37" t="s">
+      <c r="AE41" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AF41" s="77" t="n">
+      <c r="AF41" s="26" t="n">
         <v>0.13</v>
       </c>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="75" t="n">
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AN41" s="22" t="n">
+      <c r="AN41" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="AO41" s="79" t="s">
+      <c r="AO41" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="25" t="s">
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="n">
+    <row r="42" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="32" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="H42" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37" t="n">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="32" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="O42" s="37" t="s">
+      <c r="O42" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="P42" s="37" t="s">
+      <c r="P42" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="37" t="s">
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S42" s="65" t="s">
+      <c r="S42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="37" t="s">
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="Y42" s="55" t="s">
+      <c r="Y42" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="20" t="s">
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE42" s="20" t="s">
+      <c r="AE42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF42" s="82" t="n">
+      <c r="AF42" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="75" t="n">
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN42" s="22" t="n">
+      <c r="AN42" s="10" t="n">
         <v>41</v>
       </c>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="76" t="s">
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="25"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="n">
+    <row r="43" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="55" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="80" t="s">
+      <c r="H43" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J43" s="65"/>
-      <c r="K43" s="37" t="n">
+      <c r="J43" s="0"/>
+      <c r="K43" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="37" t="s">
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="O43" s="37" t="n">
+      <c r="O43" s="10" t="n">
         <v>5000034</v>
       </c>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="37" t="s">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="20" t="s">
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Y43" s="55" t="s">
+      <c r="Y43" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="20" t="s">
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE43" s="20" t="s">
+      <c r="AE43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF43" s="82" t="n">
+      <c r="AF43" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="83" t="s">
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="75" t="n">
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AN43" s="22" t="n">
+      <c r="AN43" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="76" t="s">
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="25"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="n">
+    <row r="44" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="89"/>
-      <c r="I44" s="90" t="s">
+      <c r="H44" s="29"/>
+      <c r="I44" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="J44" s="91" t="s">
+      <c r="J44" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91" t="s">
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="91"/>
-      <c r="AA44" s="91"/>
-      <c r="AB44" s="91"/>
-      <c r="AC44" s="91"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="91"/>
-      <c r="AF44" s="93" t="n">
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="91"/>
-      <c r="AK44" s="91"/>
-      <c r="AL44" s="94"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="22" t="n">
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="AO44" s="92" t="s">
+      <c r="AO44" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AP44" s="91"/>
-      <c r="AQ44" s="91"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="n">
+    <row r="45" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="88" t="s">
+      <c r="G45" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="89" t="s">
+      <c r="H45" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="90" t="s">
+      <c r="I45" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J45" s="92" t="s">
+      <c r="J45" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91" t="s">
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="91"/>
-      <c r="AA45" s="91"/>
-      <c r="AB45" s="91"/>
-      <c r="AC45" s="91"/>
-      <c r="AD45" s="91"/>
-      <c r="AE45" s="91"/>
-      <c r="AF45" s="93"/>
-      <c r="AG45" s="91"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="91"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="94"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="22" t="n">
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="91" t="n">
+      <c r="AO45" s="29" t="n">
         <v>34</v>
       </c>
-      <c r="AP45" s="91"/>
-      <c r="AQ45" s="91"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="n">
+    <row r="46" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="87" t="s">
+      <c r="F46" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="G46" s="88" t="s">
+      <c r="G46" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="H46" s="89" t="s">
+      <c r="H46" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J46" s="92" t="s">
+      <c r="J46" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91" t="s">
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
-      <c r="X46" s="91"/>
-      <c r="Y46" s="91"/>
-      <c r="Z46" s="91"/>
-      <c r="AA46" s="91"/>
-      <c r="AB46" s="91"/>
-      <c r="AC46" s="91"/>
-      <c r="AD46" s="91"/>
-      <c r="AE46" s="91"/>
-      <c r="AF46" s="93" t="n">
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AG46" s="91"/>
-      <c r="AH46" s="91"/>
-      <c r="AI46" s="91"/>
-      <c r="AJ46" s="91"/>
-      <c r="AK46" s="91"/>
-      <c r="AL46" s="94"/>
-      <c r="AM46" s="95"/>
-      <c r="AN46" s="22" t="n">
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="AO46" s="91" t="n">
+      <c r="AO46" s="29" t="n">
         <v>35</v>
       </c>
-      <c r="AP46" s="91"/>
-      <c r="AQ46" s="91"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="n">
+    <row r="47" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G47" s="88" t="s">
+      <c r="G47" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="89" t="s">
+      <c r="H47" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I47" s="90" t="s">
+      <c r="I47" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J47" s="92" t="s">
+      <c r="J47" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91" t="s">
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="91"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="91"/>
-      <c r="AC47" s="91"/>
-      <c r="AD47" s="91"/>
-      <c r="AE47" s="91"/>
-      <c r="AF47" s="93" t="n">
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
-      <c r="AL47" s="96"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="22" t="n">
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="AO47" s="91" t="n">
+      <c r="AO47" s="29" t="n">
         <v>36</v>
       </c>
-      <c r="AP47" s="91"/>
-      <c r="AQ47" s="91"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="n">
+    <row r="48" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G48" s="88" t="s">
+      <c r="G48" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="89" t="s">
+      <c r="H48" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="I48" s="90" t="s">
+      <c r="I48" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="92" t="s">
+      <c r="J48" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="91"/>
-      <c r="R48" s="91"/>
-      <c r="S48" s="91" t="s">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="91"/>
-      <c r="X48" s="91"/>
-      <c r="Y48" s="91"/>
-      <c r="Z48" s="91"/>
-      <c r="AA48" s="91"/>
-      <c r="AB48" s="91"/>
-      <c r="AC48" s="91"/>
-      <c r="AD48" s="91"/>
-      <c r="AE48" s="91"/>
-      <c r="AF48" s="93" t="n">
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AG48" s="91"/>
-      <c r="AH48" s="91"/>
-      <c r="AI48" s="91"/>
-      <c r="AJ48" s="91"/>
-      <c r="AK48" s="91"/>
-      <c r="AL48" s="96"/>
-      <c r="AM48" s="95"/>
-      <c r="AN48" s="22" t="n">
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="AO48" s="91" t="n">
+      <c r="AO48" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="AP48" s="91"/>
-      <c r="AQ48" s="91"/>
+      <c r="AP48" s="29"/>
+      <c r="AQ48" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR44"/>
@@ -5617,7 +5282,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="44:48 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5626,12 +5291,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5654,7 +5319,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="44:48 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5663,48 +5328,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QSR" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,24 +13,24 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -521,10 +522,10 @@
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+    <t xml:space="preserve">Cooler: Max 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 26 СКЮ на дверь</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU per Door RANGE</t>
@@ -1138,16 +1139,16 @@
   <dimension ref="A1:AR48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="47.834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4034,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>128</v>
@@ -5262,7 +5263,7 @@
       <c r="AQ48" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR44"/>
+  <autoFilter ref="A1:AQ44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -13,25 +13,25 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AR$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -626,7 +627,10 @@
     <t xml:space="preserve">number of facings near food</t>
   </si>
   <si>
-    <t xml:space="preserve">food</t>
+    <t xml:space="preserve">food, RN_Fifa_Combo_Champion_vorota, GP_Combo_Sandvich, GP_Combo_ Hotdog, CC_Combo_Goal, CC_Combo_Cans, CCMini_Can_on_Tray_Grek_salad_White, BP_Fifa_combo_Champion, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10125, A5B10124 , A5B10123, A5B10121, A5B10120, A5B10118, A5B10116</t>
   </si>
   <si>
     <t xml:space="preserve">Food should be near Image</t>
@@ -658,6 +662,12 @@
   </si>
   <si>
     <t xml:space="preserve">Обед: Еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food, CC_Combo_BW, CC_Combo_Cups, Subway Promo-slide Fuzetea, Subway Children'S Combo, Subway Combo With Coca-Cola, Subway Promo-Slide, Subway Promo-Slide Pulpy, Subway Sticker On A Show-Window, Subway Combo With Coca-Cola Pet, Subway Combo With Dobriy 0,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10122, A5B10119, A5B10104, 5000040, 5000045, A5B10057, 5000043, 5000044, 5000042, 5000041</t>
   </si>
   <si>
     <t xml:space="preserve">RD38010004</t>
@@ -758,7 +768,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -808,6 +818,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -909,7 +926,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1018,6 +1035,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,15 +1063,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,7 +1096,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1139,16 +1160,16 @@
   <dimension ref="A1:AR48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4571,11 +4592,11 @@
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="O40" s="10" t="n">
-        <v>5000034</v>
+      <c r="O40" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -4597,21 +4618,21 @@
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
       <c r="AD40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="AE40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF40" s="28" t="n">
+      <c r="AF40" s="29" t="n">
         <v>0</v>
       </c>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
@@ -4647,10 +4668,10 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>171</v>
@@ -4705,7 +4726,7 @@
         <v>40</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP41" s="10"/>
       <c r="AQ41" s="10"/>
@@ -4731,10 +4752,10 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>56</v>
@@ -4746,10 +4767,10 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>157</v>
@@ -4781,7 +4802,7 @@
       <c r="AE42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF42" s="28" t="n">
+      <c r="AF42" s="29" t="n">
         <v>0</v>
       </c>
       <c r="AG42" s="10"/>
@@ -4798,7 +4819,7 @@
       </c>
       <c r="AO42" s="10"/>
       <c r="AP42" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AQ42" s="10"/>
       <c r="AR42" s="13"/>
@@ -4821,10 +4842,10 @@
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>182</v>
@@ -4835,11 +4856,11 @@
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="O43" s="10" t="n">
-        <v>5000034</v>
+      <c r="N43" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
@@ -4861,21 +4882,21 @@
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
       <c r="AD43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="AE43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF43" s="28" t="n">
+      <c r="AF43" s="29" t="n">
         <v>0</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
@@ -4888,7 +4909,7 @@
       </c>
       <c r="AO43" s="10"/>
       <c r="AP43" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="13"/>
@@ -4897,373 +4918,373 @@
       <c r="A44" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>195</v>
+      <c r="B44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G44" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+        <v>202</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="31" t="n">
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="29"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="10"/>
-      <c r="AM44" s="29"/>
+      <c r="AM44" s="30"/>
       <c r="AN44" s="10" t="n">
         <v>43</v>
       </c>
       <c r="AO44" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP44" s="29"/>
-      <c r="AQ44" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="H45" s="29" t="s">
+      <c r="F45" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>153</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+        <v>211</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="29"/>
+        <v>212</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="10"/>
-      <c r="AM45" s="29"/>
+      <c r="AM45" s="30"/>
       <c r="AN45" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="29" t="n">
+      <c r="AO45" s="30" t="n">
         <v>34</v>
       </c>
-      <c r="AP45" s="29"/>
-      <c r="AQ45" s="29"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
     </row>
     <row r="46" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="J46" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="31" t="n">
+        <v>215</v>
+      </c>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="10"/>
-      <c r="AM46" s="29"/>
+      <c r="AM46" s="30"/>
       <c r="AN46" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="AO46" s="29" t="n">
+      <c r="AO46" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="29"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="F47" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="30" t="s">
         <v>169</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
+        <v>211</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="31" t="n">
+        <v>218</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="10"/>
-      <c r="AM47" s="29"/>
+      <c r="AM47" s="30"/>
       <c r="AN47" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="AO47" s="29" t="n">
+      <c r="AO47" s="30" t="n">
         <v>36</v>
       </c>
-      <c r="AP47" s="29"/>
-      <c r="AQ47" s="29"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>185</v>
+      <c r="F48" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
+        <v>211</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="31" t="n">
+        <v>219</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="10"/>
-      <c r="AM48" s="29"/>
+      <c r="AM48" s="30"/>
       <c r="AN48" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="AO48" s="29" t="n">
+      <c r="AO48" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="AP48" s="29"/>
-      <c r="AQ48" s="29"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ44"/>
+  <autoFilter ref="A1:AR44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5292,12 +5313,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5329,49 +5350,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="35" t="s">
-        <v>220</v>
+      <c r="B4" s="36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
@@ -45,6 +45,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -816,12 +817,13 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -842,23 +844,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -866,6 +865,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -873,6 +873,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -942,13 +943,17 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -961,10 +966,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -995,19 +996,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,15 +1012,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,66 +1034,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006100"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1118,198 +1051,198 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3036437246964"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8259109311741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5344129554656"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.64777327935223"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="18.8259109311741"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="8.64777327935223"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.004048582996"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.6963562753036"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="18.995951417004"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.8906882591093"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="14.246963562753"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="16.6194331983806"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="22.2145748987854"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="21.0323886639676"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="26.6315789473684"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.0647773279352"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="46.3036437246964"/>
-    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1010" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="ALV1" s="2"/>
+      <c r="ALW1" s="2"/>
+      <c r="ALX1" s="2"/>
+      <c r="ALY1" s="2"/>
+      <c r="ALZ1" s="2"/>
+      <c r="AMA1" s="2"/>
+      <c r="AMB1" s="2"/>
+      <c r="AMC1" s="2"/>
+      <c r="AMD1" s="2"/>
+      <c r="AME1" s="2"/>
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="2"/>
+      <c r="AMH1" s="2"/>
+      <c r="AMI1" s="2"/>
+      <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1330,63 +1263,63 @@
       <c r="L2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1401,14 +1334,14 @@
       <c r="J3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="n">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="O3" s="9" t="s">
@@ -1417,69 +1350,69 @@
       <c r="P3" s="10" t="n">
         <v>0.030362</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="n">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5" t="s">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AC3" s="8" t="n">
         <v>54491472</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1494,14 +1427,14 @@
       <c r="J4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="n">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="O4" s="9" t="s">
@@ -1510,69 +1443,69 @@
       <c r="P4" s="10" t="n">
         <v>0.030362</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="n">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AC4" s="8" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5" t="s">
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5" t="s">
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1587,14 +1520,14 @@
       <c r="J5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="n">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -1603,69 +1536,69 @@
       <c r="P5" s="10" t="n">
         <v>0.030362</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="n">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AC5" s="8" t="n">
         <v>50112128</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5" t="s">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5" t="s">
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1680,14 +1613,14 @@
       <c r="J6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -1696,69 +1629,69 @@
       <c r="P6" s="10" t="n">
         <v>0.030362</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5" t="n">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="AC6" s="8" t="n">
         <v>90375408</v>
       </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5" t="s">
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5" t="s">
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1773,14 +1706,14 @@
       <c r="J7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>69</v>
       </c>
       <c r="O7" s="9" t="s">
@@ -1789,69 +1722,69 @@
       <c r="P7" s="10" t="n">
         <v>0.018173</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5" t="s">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5" t="n">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC7" s="8" t="n">
         <v>54491069</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5" t="s">
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5" t="s">
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1866,14 +1799,14 @@
       <c r="J8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="n">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -1882,69 +1815,69 @@
       <c r="P8" s="10" t="n">
         <v>0.018173</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5" t="n">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AC8" s="8" t="n">
         <v>40822938</v>
       </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5" t="s">
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5" t="s">
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1959,14 +1892,14 @@
       <c r="J9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="n">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -1975,69 +1908,69 @@
       <c r="P9" s="10" t="n">
         <v>0.012206</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5" t="n">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="AC9" s="8" t="n">
         <v>5449000213631</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5" t="s">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5" t="s">
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2058,63 +1991,63 @@
       <c r="L10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2129,14 +2062,14 @@
       <c r="J11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="n">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="O11" s="9" t="s">
@@ -2145,69 +2078,69 @@
       <c r="P11" s="10" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5" t="n">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="AC11" s="8" t="n">
         <v>40822426</v>
       </c>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5" t="s">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5" t="s">
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2222,11 +2155,11 @@
       <c r="J12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="n">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="9" t="s">
@@ -2238,69 +2171,69 @@
       <c r="P12" s="10" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5" t="s">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5" t="n">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
       <c r="AB12" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AC12" s="8" t="n">
         <v>90418822</v>
       </c>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5" t="s">
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5" t="s">
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2315,14 +2248,14 @@
       <c r="J13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="n">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="6" t="s">
         <v>84</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -2331,69 +2264,69 @@
       <c r="P13" s="10" t="n">
         <v>0.015295</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5" t="n">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AC13" s="8" t="n">
         <v>90494406</v>
       </c>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5" t="s">
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5" t="s">
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2408,14 +2341,14 @@
       <c r="J14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="n">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>86</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -2424,69 +2357,69 @@
       <c r="P14" s="10" t="n">
         <v>0.007705</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5" t="s">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5" t="n">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
         <v>86</v>
       </c>
       <c r="AC14" s="8" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5" t="s">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5" t="s">
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2501,69 +2434,69 @@
       <c r="J15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2578,14 +2511,14 @@
       <c r="J16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="n">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>92</v>
       </c>
       <c r="O16" s="9" t="s">
@@ -2594,69 +2527,69 @@
       <c r="P16" s="10" t="n">
         <v>0.007705</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5" t="s">
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5" t="n">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6" t="s">
         <v>92</v>
       </c>
       <c r="AC16" s="8" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5" t="s">
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2671,11 +2604,11 @@
       <c r="J17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="n">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="n">
         <v>14</v>
       </c>
       <c r="N17" s="9" t="s">
@@ -2687,69 +2620,69 @@
       <c r="P17" s="10" t="n">
         <v>0.007705</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5" t="s">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5" t="n">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
       <c r="AB17" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AC17" s="8" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5" t="s">
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5" t="s">
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2764,69 +2697,69 @@
       <c r="J18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="6" t="n">
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5" t="s">
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2841,14 +2774,14 @@
       <c r="J19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="n">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>100</v>
       </c>
       <c r="O19" s="9" t="s">
@@ -2857,69 +2790,69 @@
       <c r="P19" s="10" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5" t="n">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6" t="s">
         <v>100</v>
       </c>
       <c r="AC19" s="8" t="n">
         <v>5449000193124</v>
       </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5" t="s">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5" t="s">
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2934,14 +2867,14 @@
       <c r="J20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="n">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="6" t="s">
         <v>102</v>
       </c>
       <c r="O20" s="9" t="s">
@@ -2950,69 +2883,69 @@
       <c r="P20" s="10" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5" t="s">
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5" t="n">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6" t="s">
         <v>102</v>
       </c>
       <c r="AC20" s="8" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="s">
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5" t="s">
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3027,14 +2960,14 @@
       <c r="J21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="n">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="6" t="s">
         <v>104</v>
       </c>
       <c r="O21" s="9" t="s">
@@ -3043,69 +2976,69 @@
       <c r="P21" s="10" t="n">
         <v>0.015295</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5" t="s">
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5" t="n">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="s">
         <v>104</v>
       </c>
       <c r="AC21" s="8" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5" t="s">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5" t="s">
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3120,11 +3053,11 @@
       <c r="J22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="n">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="n">
         <v>17</v>
       </c>
       <c r="N22" s="9" t="s">
@@ -3136,69 +3069,69 @@
       <c r="P22" s="10" t="n">
         <v>0.015295</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5" t="s">
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5" t="n">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
       <c r="AB22" s="9" t="s">
         <v>106</v>
       </c>
       <c r="AC22" s="8" t="n">
         <v>5449000189370</v>
       </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5" t="s">
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5" t="s">
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3213,69 +3146,69 @@
       <c r="J23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="6" t="n">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5" t="s">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
       <c r="AC23" s="8"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3290,14 +3223,14 @@
       <c r="J24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="n">
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="6" t="s">
         <v>112</v>
       </c>
       <c r="O24" s="9" t="s">
@@ -3306,69 +3239,69 @@
       <c r="P24" s="10" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5" t="s">
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5" t="n">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6" t="s">
         <v>112</v>
       </c>
       <c r="AC24" s="8" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5" t="s">
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5" t="s">
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3383,14 +3316,14 @@
       <c r="J25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="n">
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O25" s="9" t="s">
@@ -3399,69 +3332,69 @@
       <c r="P25" s="10" t="n">
         <v>0.015295</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5" t="s">
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5" t="n">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6" t="s">
         <v>114</v>
       </c>
       <c r="AC25" s="8" t="n">
         <v>4607174579309</v>
       </c>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5" t="s">
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3476,14 +3409,14 @@
       <c r="J26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5" t="n">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="6" t="s">
         <v>116</v>
       </c>
       <c r="O26" s="9" t="s">
@@ -3492,69 +3425,69 @@
       <c r="P26" s="10" t="n">
         <v>0.015295</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5" t="s">
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5" t="n">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AC26" s="8" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5" t="s">
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5" t="s">
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3569,14 +3502,14 @@
       <c r="J27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="n">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="6" t="s">
         <v>118</v>
       </c>
       <c r="O27" s="9" t="s">
@@ -3585,69 +3518,69 @@
       <c r="P27" s="10" t="n">
         <v>0.007705</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5" t="s">
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5" t="n">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5" t="s">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6" t="s">
         <v>118</v>
       </c>
       <c r="AC27" s="8" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5" t="s">
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5" t="s">
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -3662,14 +3595,14 @@
       <c r="J28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="n">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="6" t="s">
         <v>120</v>
       </c>
       <c r="O28" s="9" t="s">
@@ -3678,69 +3611,69 @@
       <c r="P28" s="10" t="n">
         <v>0.007705</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5" t="s">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5" t="n">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6" t="s">
         <v>120</v>
       </c>
       <c r="AC28" s="8" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5" t="s">
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5" t="s">
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -3755,75 +3688,74 @@
       <c r="J29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="6" t="n">
         <v>28</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="6" t="s">
         <v>129</v>
       </c>
       <c r="P29" s="12" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5" t="s">
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
       <c r="AC29" s="8"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5" t="s">
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -3838,83 +3770,83 @@
       <c r="J30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5" t="n">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="6" t="s">
         <v>135</v>
       </c>
       <c r="P30" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5" t="s">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5" t="n">
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5" t="s">
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6" t="s">
         <v>138</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5" t="s">
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5" t="s">
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -3929,81 +3861,81 @@
       <c r="J31" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5" t="n">
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="6" t="s">
         <v>142</v>
       </c>
       <c r="P31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5" t="s">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5" t="n">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6" t="s">
         <v>138</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5" t="s">
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -4018,17 +3950,17 @@
       <c r="J32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="n">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="6" t="s">
         <v>149</v>
       </c>
       <c r="P32" s="12" t="n">
@@ -4037,64 +3969,65 @@
       <c r="Q32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5" t="s">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5" t="n">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5" t="s">
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AB32" s="5"/>
+      <c r="AB32" s="6"/>
       <c r="AC32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5" t="s">
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AL32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5" t="s">
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -4109,83 +4042,83 @@
       <c r="J33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="n">
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="6" t="s">
         <v>155</v>
       </c>
       <c r="P33" s="12" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5" t="s">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5" t="n">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5" t="s">
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AB33" s="5" t="s">
+      <c r="AB33" s="6" t="s">
         <v>138</v>
       </c>
       <c r="AC33" s="8"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5" t="s">
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5" t="s">
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -4200,85 +4133,85 @@
       <c r="J34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="n">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="6" t="s">
         <v>159</v>
       </c>
       <c r="P34" s="12" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5" t="s">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5" t="n">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z34" s="5" t="n">
+      <c r="Z34" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AA34" s="5" t="s">
+      <c r="AA34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AB34" s="5" t="s">
+      <c r="AB34" s="6" t="s">
         <v>138</v>
       </c>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5" t="s">
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5" t="s">
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -4293,85 +4226,85 @@
       <c r="J35" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="P35" s="14" t="n">
+      <c r="P35" s="13" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5" t="s">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5" t="n">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5" t="s">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5" t="s">
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5" t="s">
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL35" s="5" t="s">
+      <c r="AL35" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -4386,89 +4319,89 @@
       <c r="J36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5" t="s">
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="P36" s="15" t="n">
+      <c r="P36" s="14" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5" t="s">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U36" s="5" t="s">
+      <c r="U36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5" t="n">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5" t="s">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AC36" s="5" t="s">
+      <c r="AC36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AD36" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AE36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5" t="s">
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5" t="s">
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL36" s="5" t="s">
+      <c r="AL36" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -4483,79 +4416,79 @@
       <c r="J37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="6" t="n">
         <v>36</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="P37" s="15" t="n">
+      <c r="P37" s="14" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5" t="s">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5" t="s">
+      <c r="T37" s="6"/>
+      <c r="U37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5" t="n">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5" t="s">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL37" s="5" t="s">
+      <c r="AL37" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -4570,87 +4503,87 @@
       <c r="J38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="n">
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="P38" s="15" t="n">
+      <c r="P38" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5" t="s">
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="U38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5" t="n">
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5" t="s">
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AC38" s="5" t="n">
+      <c r="AC38" s="6" t="n">
         <v>5050570</v>
       </c>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5" t="s">
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5" t="s">
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL38" s="5" t="s">
+      <c r="AL38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -4665,87 +4598,87 @@
       <c r="J39" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="n">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="P39" s="15" t="n">
+      <c r="P39" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="U39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5" t="n">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5" t="s">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AC39" s="5" t="n">
+      <c r="AC39" s="6" t="n">
         <v>50111114</v>
       </c>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5" t="s">
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5" t="s">
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL39" s="5" t="s">
+      <c r="AL39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -4760,17 +4693,17 @@
       <c r="J40" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="n">
+      <c r="L40" s="6"/>
+      <c r="M40" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="6" t="s">
         <v>195</v>
       </c>
       <c r="P40" s="12" t="n">
@@ -4779,68 +4712,67 @@
       <c r="Q40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U40" s="5" t="s">
+      <c r="U40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5" t="n">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="16" t="s">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AC40" s="16" t="s">
+      <c r="AC40" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5" t="s">
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL40" s="5" t="s">
+      <c r="AL40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="5" t="s">
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -4855,79 +4787,79 @@
       <c r="J41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="6" t="n">
         <v>40</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="P41" s="15" t="n">
+      <c r="P41" s="14" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5" t="s">
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
+      <c r="T41" s="6"/>
+      <c r="U41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5" t="n">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5" t="s">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL41" s="5" t="s">
+      <c r="AL41" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -4942,87 +4874,87 @@
       <c r="J42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="n">
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="6" t="s">
         <v>204</v>
       </c>
       <c r="P42" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="Q42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5" t="s">
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U42" s="5" t="s">
+      <c r="U42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5" t="n">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5" t="s">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AC42" s="5" t="s">
+      <c r="AC42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5" t="s">
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5" t="s">
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL42" s="5" t="s">
+      <c r="AL42" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -5037,17 +4969,17 @@
       <c r="J43" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5" t="n">
+      <c r="L43" s="6"/>
+      <c r="M43" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="6" t="s">
         <v>208</v>
       </c>
       <c r="P43" s="12" t="n">
@@ -5056,414 +4988,413 @@
       <c r="Q43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="U43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5" t="n">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="16" t="s">
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AC43" s="16" t="s">
+      <c r="AC43" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5" t="s">
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AL43" s="5" t="s">
+      <c r="AL43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="5" t="s">
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="5" t="n">
+      <c r="F44" s="6"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="6" t="n">
         <v>43</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="18" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="6" t="s">
         <v>216</v>
       </c>
       <c r="P44" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5" t="s">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="6"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="5" t="n">
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="L45" s="5" t="n">
+      <c r="L45" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="18" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="6" t="s">
         <v>222</v>
       </c>
       <c r="P45" s="12"/>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5" t="s">
+      <c r="S45" s="6"/>
+      <c r="T45" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
       <c r="AC45" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="5" t="n">
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="L46" s="5" t="n">
+      <c r="L46" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="18" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="6" t="s">
         <v>227</v>
       </c>
       <c r="P46" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5" t="s">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
       <c r="AC46" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="5" t="n">
+      <c r="F47" s="6"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="L47" s="5" t="n">
+      <c r="L47" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="18" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="6" t="s">
         <v>230</v>
       </c>
       <c r="P47" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="Q47" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5" t="s">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
       <c r="AC47" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="5" t="n">
+      <c r="F48" s="6"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="L48" s="5" t="n">
+      <c r="L48" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="18" t="s">
+      <c r="M48" s="6"/>
+      <c r="N48" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="6" t="s">
         <v>232</v>
       </c>
       <c r="P48" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q48" s="5" t="s">
+      <c r="Q48" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5" t="s">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
       <c r="AC48" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ48"/>
+  <autoFilter ref="A1:AQ44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5492,48 +5423,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>239</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/QSR PoS 2018.xlsx
+++ b/Projects/CCRU/Data/QSR PoS 2018.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">QSR!$A$1:$AQ$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">QSR!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -378,6 +379,9 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
   </si>
   <si>
@@ -388,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Citrus - 0.5L</t>
@@ -810,14 +817,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -860,6 +868,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -876,7 +891,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +902,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -913,7 +934,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -942,8 +963,11 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -992,7 +1016,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,20 +1040,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -1033,7 +1061,68 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1048,34 +1137,34 @@
   </sheetPr>
   <dimension ref="1:48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AC19" activeCellId="0" sqref="AC19:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="47.0242914979757"/>
     <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1010" style="2" width="9.10526315789474"/>
   </cols>
@@ -2814,8 +2903,8 @@
       <c r="AB19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AC19" s="8" t="n">
-        <v>5449000193124</v>
+      <c r="AC19" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
@@ -2875,10 +2964,10 @@
         <v>17</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="10" t="n">
         <v>0.023</v>
@@ -2905,7 +2994,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC20" s="8" t="n">
         <v>5449000233615</v>
@@ -2968,10 +3057,10 @@
         <v>17</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P21" s="10" t="n">
         <v>0.015295</v>
@@ -2998,10 +3087,10 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC21" s="8" t="n">
-        <v>5449000189301</v>
+        <v>105</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -3061,10 +3150,10 @@
         <v>17</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P22" s="10" t="n">
         <v>0.015295</v>
@@ -3091,7 +3180,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AC22" s="8" t="n">
         <v>5449000189370</v>
@@ -3141,23 +3230,23 @@
         <v>48</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K23" s="6" t="n">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
@@ -3218,10 +3307,10 @@
         <v>48</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K24" s="6" t="n">
         <v>23</v>
@@ -3231,10 +3320,10 @@
         <v>22</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P24" s="10" t="n">
         <v>0.023</v>
@@ -3261,7 +3350,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC24" s="8" t="n">
         <v>4607174577787</v>
@@ -3311,10 +3400,10 @@
         <v>48</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="6" t="n">
         <v>24</v>
@@ -3324,10 +3413,10 @@
         <v>22</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P25" s="10" t="n">
         <v>0.015295</v>
@@ -3354,7 +3443,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC25" s="8" t="n">
         <v>4607174579309</v>
@@ -3404,10 +3493,10 @@
         <v>48</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>25</v>
@@ -3417,10 +3506,10 @@
         <v>22</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P26" s="10" t="n">
         <v>0.015295</v>
@@ -3447,7 +3536,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AC26" s="8" t="n">
         <v>4607174579286</v>
@@ -3497,10 +3586,10 @@
         <v>48</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>26</v>
@@ -3510,10 +3599,10 @@
         <v>22</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P27" s="10" t="n">
         <v>0.007705</v>
@@ -3540,7 +3629,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC27" s="8" t="n">
         <v>4607174579729</v>
@@ -3590,10 +3679,10 @@
         <v>48</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K28" s="6" t="n">
         <v>27</v>
@@ -3603,10 +3692,10 @@
         <v>22</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P28" s="10" t="n">
         <v>0.007705</v>
@@ -3633,7 +3722,7 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC28" s="8" t="n">
         <v>4607042430619</v>
@@ -3665,7 +3754,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>45</v>
@@ -3677,46 +3766,47 @@
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" s="6" t="n">
         <v>28</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="12" t="n">
+        <v>131</v>
+      </c>
+      <c r="P29" s="13" t="n">
         <v>0.08</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
+      <c r="X29" s="0"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
@@ -3736,7 +3826,7 @@
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3747,7 +3837,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>45</v>
@@ -3759,16 +3849,16 @@
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>29</v>
@@ -3778,21 +3868,21 @@
         <v>28</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="12" t="n">
+        <v>137</v>
+      </c>
+      <c r="P30" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>60</v>
@@ -3806,10 +3896,10 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
@@ -3819,7 +3909,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL30" s="6"/>
       <c r="AM30" s="6"/>
@@ -3827,7 +3917,7 @@
       <c r="AO30" s="6"/>
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3838,7 +3928,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>45</v>
@@ -3850,16 +3940,16 @@
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K31" s="6" t="n">
         <v>30</v>
@@ -3869,21 +3959,21 @@
         <v>28</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P31" s="12" t="n">
+        <v>144</v>
+      </c>
+      <c r="P31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U31" s="6" t="s">
         <v>60</v>
@@ -3897,10 +3987,10 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
@@ -3910,7 +4000,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL31" s="6"/>
       <c r="AM31" s="6"/>
@@ -3927,7 +4017,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>45</v>
@@ -3939,16 +4029,16 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K32" s="6" t="n">
         <v>31</v>
@@ -3958,20 +4048,21 @@
         <v>28</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" s="12" t="n">
+        <v>151</v>
+      </c>
+      <c r="P32" s="13" t="n">
         <v>0.04</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="R32" s="0"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>60</v>
@@ -3984,11 +4075,11 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -4001,14 +4092,14 @@
         <v>61</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM32" s="2"/>
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
       <c r="AQ32" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4019,7 +4110,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>45</v>
@@ -4031,16 +4122,16 @@
         <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K33" s="6" t="n">
         <v>32</v>
@@ -4050,24 +4141,24 @@
         <v>28</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="P33" s="12" t="n">
+        <v>157</v>
+      </c>
+      <c r="P33" s="13" t="n">
         <v>0.04</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -4077,10 +4168,10 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC33" s="8"/>
       <c r="AD33" s="6"/>
@@ -4091,7 +4182,7 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL33" s="6"/>
       <c r="AM33" s="6"/>
@@ -4099,7 +4190,7 @@
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
       <c r="AQ33" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4110,7 +4201,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>45</v>
@@ -4122,16 +4213,16 @@
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>33</v>
@@ -4141,24 +4232,24 @@
         <v>28</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="P34" s="12" t="n">
+        <v>161</v>
+      </c>
+      <c r="P34" s="13" t="n">
         <v>0.04</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -4170,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC34" s="8"/>
       <c r="AD34" s="6"/>
@@ -4184,7 +4275,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL34" s="6"/>
       <c r="AM34" s="6"/>
@@ -4192,7 +4283,7 @@
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
       <c r="AQ34" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4203,7 +4294,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>45</v>
@@ -4215,16 +4306,16 @@
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K35" s="6" t="n">
         <v>34</v>
@@ -4232,12 +4323,12 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="P35" s="13" t="n">
+        <v>169</v>
+      </c>
+      <c r="P35" s="14" t="n">
         <v>0.07</v>
       </c>
       <c r="Q35" s="6" t="s">
@@ -4248,7 +4339,7 @@
         <v>58</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U35" s="6" t="s">
         <v>60</v>
@@ -4262,25 +4353,25 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL35" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6"/>
@@ -4296,7 +4387,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>45</v>
@@ -4308,16 +4399,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K36" s="6" t="n">
         <v>35</v>
@@ -4325,12 +4416,12 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P36" s="14" t="n">
+        <v>177</v>
+      </c>
+      <c r="P36" s="15" t="n">
         <v>0.07</v>
       </c>
       <c r="Q36" s="6" t="s">
@@ -4341,7 +4432,7 @@
         <v>58</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U36" s="6" t="s">
         <v>60</v>
@@ -4355,29 +4446,29 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE36" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL36" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM36" s="6"/>
       <c r="AN36" s="6"/>
@@ -4393,7 +4484,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>45</v>
@@ -4405,39 +4496,39 @@
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K37" s="6" t="n">
         <v>36</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P37" s="14" t="n">
+        <v>187</v>
+      </c>
+      <c r="P37" s="15" t="n">
         <v>0.13</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6" t="s">
@@ -4461,10 +4552,10 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL37" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM37" s="6"/>
       <c r="AN37" s="6"/>
@@ -4480,7 +4571,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>45</v>
@@ -4492,16 +4583,16 @@
         <v>3</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K38" s="6" t="n">
         <v>37</v>
@@ -4511,12 +4602,12 @@
         <v>36</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P38" s="14" t="n">
+        <v>191</v>
+      </c>
+      <c r="P38" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="6" t="s">
@@ -4541,7 +4632,7 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC38" s="6" t="n">
         <v>5050570</v>
@@ -4550,16 +4641,16 @@
       <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -4575,7 +4666,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>45</v>
@@ -4587,16 +4678,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K39" s="6" t="n">
         <v>38</v>
@@ -4606,12 +4697,12 @@
         <v>36</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="P39" s="14" t="n">
+        <v>194</v>
+      </c>
+      <c r="P39" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="6" t="s">
@@ -4636,7 +4727,7 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC39" s="6" t="n">
         <v>50111114</v>
@@ -4645,16 +4736,16 @@
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
@@ -4670,7 +4761,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>45</v>
@@ -4682,16 +4773,16 @@
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K40" s="6" t="n">
         <v>39</v>
@@ -4701,17 +4792,18 @@
         <v>36</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="P40" s="12" t="n">
+        <v>197</v>
+      </c>
+      <c r="P40" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="R40" s="0"/>
       <c r="S40" s="6" t="s">
         <v>58</v>
       </c>
@@ -4730,10 +4822,10 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
@@ -4743,17 +4835,17 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
       <c r="AQ40" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4764,7 +4856,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>45</v>
@@ -4776,39 +4868,39 @@
         <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K41" s="6" t="n">
         <v>40</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="P41" s="14" t="n">
+        <v>204</v>
+      </c>
+      <c r="P41" s="15" t="n">
         <v>0.13</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6" t="s">
@@ -4832,10 +4924,10 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
@@ -4851,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>45</v>
@@ -4863,16 +4955,16 @@
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K42" s="6" t="n">
         <v>41</v>
@@ -4882,12 +4974,12 @@
         <v>40</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="P42" s="12" t="n">
+        <v>206</v>
+      </c>
+      <c r="P42" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="6" t="s">
@@ -4898,7 +4990,7 @@
         <v>58</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U42" s="6" t="s">
         <v>60</v>
@@ -4912,25 +5004,25 @@
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL42" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
@@ -4946,7 +5038,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>45</v>
@@ -4958,16 +5050,16 @@
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K43" s="6" t="n">
         <v>42</v>
@@ -4977,17 +5069,18 @@
         <v>40</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="P43" s="12" t="n">
+        <v>210</v>
+      </c>
+      <c r="P43" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="R43" s="0"/>
       <c r="S43" s="6" t="s">
         <v>58</v>
       </c>
@@ -5006,10 +5099,10 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
@@ -5019,17 +5112,17 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL43" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
       <c r="AQ43" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5037,47 +5130,47 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="6" t="n">
         <v>43</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M44" s="6"/>
-      <c r="N44" s="16" t="s">
-        <v>215</v>
+      <c r="N44" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="P44" s="12" t="n">
+        <v>218</v>
+      </c>
+      <c r="P44" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -5108,22 +5201,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>161</v>
+        <v>222</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="6" t="n">
         <v>44</v>
       </c>
@@ -5131,22 +5224,22 @@
         <v>34</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="16" t="s">
-        <v>221</v>
+      <c r="N45" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="P45" s="12"/>
+        <v>224</v>
+      </c>
+      <c r="P45" s="13"/>
       <c r="Q45" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -5157,7 +5250,7 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
@@ -5179,22 +5272,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>173</v>
+        <v>222</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="6" t="n">
         <v>45</v>
       </c>
@@ -5202,24 +5295,24 @@
         <v>35</v>
       </c>
       <c r="M46" s="6"/>
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R46" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="P46" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -5230,7 +5323,7 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
@@ -5252,22 +5345,22 @@
         <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="6" t="n">
         <v>47</v>
       </c>
@@ -5275,24 +5368,24 @@
         <v>36</v>
       </c>
       <c r="M47" s="6"/>
-      <c r="N47" s="16" t="s">
-        <v>229</v>
+      <c r="N47" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="P47" s="12" t="n">
+        <v>232</v>
+      </c>
+      <c r="P47" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -5303,7 +5396,7 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
@@ -5325,22 +5418,22 @@
         <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="6" t="n">
         <v>48</v>
       </c>
@@ -5348,24 +5441,24 @@
         <v>40</v>
       </c>
       <c r="M48" s="6"/>
-      <c r="N48" s="16" t="s">
-        <v>229</v>
+      <c r="N48" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="P48" s="12" t="n">
+        <v>234</v>
+      </c>
+      <c r="P48" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -5376,7 +5469,7 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
@@ -5394,7 +5487,7 @@
       <c r="AQ48" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ44"/>
+  <autoFilter ref="A1:AQ48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5414,7 +5507,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC19:AC22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5423,49 +5516,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>238</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
-        <v>239</v>
+      <c r="B4" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
